--- a/examples/Memristor_Modeling/Generate_figure/best_curve.xlsx
+++ b/examples/Memristor_Modeling/Generate_figure/best_curve.xlsx
@@ -353,1077 +353,1077 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.167826738750884</v>
+        <v>0.1679769670178726</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.1810428561210788</v>
+        <v>0.1813377507281229</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.1941094566092898</v>
+        <v>0.1945435546769042</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.2070275439339204</v>
+        <v>0.2075954808637904</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.2197981197173902</v>
+        <v>0.220494628425907</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.2324221834808518</v>
+        <v>0.2332420936324628</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.2449007326388693</v>
+        <v>0.2458389698792469</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.2572347624940591</v>
+        <v>0.2582863476830883</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.2694252662316902</v>
+        <v>0.2705853146762803</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.2814732349142461</v>
+        <v>0.2827369556009673</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.2933796574759464</v>
+        <v>0.2947423523034943</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.3051455207172275</v>
+        <v>0.3066025837287191</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.3167718092991829</v>
+        <v>0.3183187259142862</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.3282595057379615</v>
+        <v>0.3298918519848619</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.3396095903991243</v>
+        <v>0.3413230321463304</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.3508230414919584</v>
+        <v>0.352613333679951</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.3619008350637477</v>
+        <v>0.3637638209364745</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.3728439449940003</v>
+        <v>0.3747755553302197</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.3836533429886315</v>
+        <v>0.3856495953331089</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.3943299985741027</v>
+        <v>0.3963869964686624</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.4048748790915137</v>
+        <v>0.4069888113059499</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.4152889496906506</v>
+        <v>0.4174560894535014</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.4255731733239865</v>
+        <v>0.4277898775531736</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.435728510740635</v>
+        <v>0.4379912192739736</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.445755920480256</v>
+        <v>0.4480611553058388</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.4556563588669142</v>
+        <v>0.4580007233533722</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.4654307800028872</v>
+        <v>0.4678109581295323</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.4750801357624249</v>
+        <v>0.477492891349278</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.4846053757854585</v>
+        <v>0.4870475517231674</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.4940074474712585</v>
+        <v>0.4964759649509092</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.5032872959720411</v>
+        <v>0.5057791537148676</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.5124458641865226</v>
+        <v>0.5149581376735191</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.52148409275342</v>
+        <v>0.5240139334548602</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.5304029200448989</v>
+        <v>0.5329475546497673</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.539203282159966</v>
+        <v>0.5417600118053053</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.5478861129178073</v>
+        <v>0.5504523124179873</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.5564523438510693</v>
+        <v>0.559025460926982</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.5649029041990843</v>
+        <v>0.5674804587072706</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.5732387209010373</v>
+        <v>0.5758183040627503</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.5814607185890758</v>
+        <v>0.5840399922192853</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.5895698195813587</v>
+        <v>0.5921465153177041</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.5975669438750466</v>
+        <v>0.6001388624067423</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.6054530091392305</v>
+        <v>0.6080180194359297</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.6132289307077985</v>
+        <v>0.6157849692484221</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.6208956215722405</v>
+        <v>0.6234406915737762</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.628453992374389</v>
+        <v>0.6309861630206672</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.6359049513990948</v>
+        <v>0.6384223570695474</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.6432494045668378</v>
+        <v>0.6457502440652469</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.6504882554262718</v>
+        <v>0.6529707912095138</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.6576224051467006</v>
+        <v>0.6600849625534934</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.6646527525104864</v>
+        <v>0.6670937189901465</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.6715801939053888</v>
+        <v>0.6739980182466051</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.678405623316833</v>
+        <v>0.6807988148764645</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.6851299323201058</v>
+        <v>0.6874970602520118</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.6917540100724802</v>
+        <v>0.6940937025563886</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.6982787433052647</v>
+        <v>0.7005896867756878</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.7047050163157788</v>
+        <v>0.7069859546909842</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.7110337109592506</v>
+        <v>0.7132834448702962</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.7172657066406395</v>
+        <v>0.7194830926604783</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.7234018803063776</v>
+        <v>0.725585830179045</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.7294431064360333</v>
+        <v>0.7315925863059223</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.7353902570338919</v>
+        <v>0.7375042866751275</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.7412442016204559</v>
+        <v>0.743321853666376</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.7470058072238591</v>
+        <v>0.749046206396614</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.7526759383711971</v>
+        <v>0.754678260711475</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.7582554570797705</v>
+        <v>0.7602189291766605</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.7637452228482404</v>
+        <v>0.7656691210692425</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.7691460926476941</v>
+        <v>0.7710297423688874</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.7744589209126196</v>
+        <v>0.7763016957489995</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.7796845595317879</v>
+        <v>0.7814858805677827</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.7848238578390413</v>
+        <v>0.7865831928592201</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.7898776626039848</v>
+        <v>0.7915945253239692</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.7948468180225817</v>
+        <v>0.7965207673201717</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.7997321657076486</v>
+        <v>0.8013628048541765</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.8045345446792506</v>
+        <v>0.8061215205711746</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.8092547913549929</v>
+        <v>0.8107977937457439</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.8138937395402088</v>
+        <v>0.8153925002723039</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.8184522204180409</v>
+        <v>0.8199065126554768</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.8229310625394137</v>
+        <v>0.8243407000003544</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.8273310918128969</v>
+        <v>0.8286959280026706</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.8316531314944552</v>
+        <v>0.8329730589388741</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.8358980021770852</v>
+        <v>0.8371729516561046</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.8400665217803346</v>
+        <v>0.8412964615620667</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.8441595055397033</v>
+        <v>0.8453444406148016</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.8481777659959239</v>
+        <v>0.8493177373123548</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.8521221129841183</v>
+        <v>0.8532171966823372</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.85599335362283</v>
+        <v>0.857043660271379</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.8597922923029269</v>
+        <v>0.8607979661344729</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.8635197306763748</v>
+        <v>0.8644809488242058</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.8671764676448778</v>
+        <v>0.8680934393798765</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.8707632993483829</v>
+        <v>0.8716362653164976</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.8742810191534462</v>
+        <v>0.875110250613679</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.8777304176414583</v>
+        <v>0.878516215704391</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.8811122825967256</v>
+        <v>0.8818549774636055</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.8844273989944048</v>
+        <v>0.8851273491968118</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.8876765489882881</v>
+        <v>0.8883341406284052</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.8908605118984341</v>
+        <v>0.8914761578899462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.8939800641986441</v>
+        <v>0.8945542035082872</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.897035979503778</v>
+        <v>0.8975690763935654</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.9000290285569077</v>
+        <v>0.9005215718270571</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.902959979216304</v>
+        <v>0.9034124814488926</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.905829596442254</v>
+        <v>0.9062425932456288</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.9086386422837047</v>
+        <v>0.9090126915376751</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.911387875864729</v>
+        <v>0.9117235569665711</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.9140780533708108</v>
+        <v>0.9143759664821132</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.9167099280349442</v>
+        <v>0.9169706933293252</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.919284250123544</v>
+        <v>0.9195085070352722</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.921801766922161</v>
+        <v>0.9219901733957123</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.9242632227210007</v>
+        <v>0.9244164544615839</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.9266693588002374</v>
+        <v>0.926788108525325</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.9290209134151219</v>
+        <v>0.9291058901070203</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.931318621780876</v>
+        <v>0.9313705499403728</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.9335632160573696</v>
+        <v>0.9335828349584967</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.9357554253335748</v>
+        <v>0.9357434882795258</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.9378959756117923</v>
+        <v>0.9378532491920353</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.9399855897916429</v>
+        <v>0.9399128531402718</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.9420249876538208</v>
+        <v>0.9419230317091873</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.9440148858435997</v>
+        <v>0.9438845126092723</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.9459559978540885</v>
+        <v>0.9457980196611845</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.9478490340092274</v>
+        <v>0.9476642727801668</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.9496947014465207</v>
+        <v>0.9494839879602516</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.9514937040994964</v>
+        <v>0.9512578772582433</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.9532467426798874</v>
+        <v>0.9529866487774774</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.9549545146595265</v>
+        <v>0.9546710066513476</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.9566177142519472</v>
+        <v>0.9563116510265971</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.9582370323936824</v>
+        <v>0.9579092780463671</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.959813156725253</v>
+        <v>0.9594645798329974</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.9613467715718376</v>
+        <v>0.9609782444705723</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.9628385579236138</v>
+        <v>0.9624509559872051</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.9642891934157635</v>
+        <v>0.9638833943370545</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.9656993523081298</v>
+        <v>0.9652762353820665</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.9670697054645183</v>
+        <v>0.9666301508734341</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.9684009203316309</v>
+        <v>0.9679458084327665</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.9696936609176205</v>
+        <v>0.9692238715329616</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.9709485877702569</v>
+        <v>0.9704649994787724</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.9721663579546908</v>
+        <v>0.9716698473870589</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.9733476250308037</v>
+        <v>0.9728390661667173</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.9744930390301326</v>
+        <v>0.9739733024982773</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.975603246432352</v>
+        <v>0.975073198813157</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.9766788901413036</v>
+        <v>0.976139393272567</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>0.9777206094605565</v>
+        <v>0.9771725197460521</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>0.9787290400684827</v>
+        <v>0.9781732077896605</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>0.9797048139928326</v>
+        <v>0.9791420826237294</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>0.9806485595847931</v>
+        <v>0.9800797651102741</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>0.981560901492511</v>
+        <v>0.9809868717299707</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>0.9824424606340623</v>
+        <v>0.9818640145587172</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>0.9832938541698499</v>
+        <v>0.9827118012437608</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>0.9841156954744072</v>
+        <v>0.9835308349793781</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>0.9849085941075877</v>
+        <v>0.9843217144820922</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>0.9856731557851172</v>
+        <v>0.9850850339654125</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>0.9864099823484856</v>
+        <v>0.9858213831140811</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>0.9871196717341539</v>
+        <v>0.9865313470578081</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>0.9878028179420481</v>
+        <v>0.98721550634448</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>0.9884600110033145</v>
+        <v>0.987874436912821</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>0.9890918369473073</v>
+        <v>0.9885087100644887</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>0.9896988777677757</v>
+        <v>0.9891188924355845</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0.9902817113882197</v>
+        <v>0.9897055459675554</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0.9908409116263807</v>
+        <v>0.9902692278774667</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>0.9913770481578276</v>
+        <v>0.9908104906276208</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>0.9918906864786039</v>
+        <v>0.9913298818944974</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>0.9923823878668917</v>
+        <v>0.9918279445369884</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>0.9928527093436501</v>
+        <v>0.9923052165639004</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>0.9933022036321826</v>
+        <v>0.9927622311006943</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>0.9937314191165835</v>
+        <v>0.9931995163554322</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>0.9941408997990113</v>
+        <v>0.9936175955838972</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>0.9945311852557335</v>
+        <v>0.9940169870538518</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>0.9949028105918826</v>
+        <v>0.9943982040083986</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0.9952563063948607</v>
+        <v>0.9947617546284027</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>0.9955921986863243</v>
+        <v>0.995108141993934</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>0.995911008872675</v>
+        <v>0.9954378640446865</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0.9962132536939802</v>
+        <v>0.9957514135393243</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>0.9964994451712375</v>
+        <v>0.9960492780137067</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>0.996770090551894</v>
+        <v>0.9963319397379362</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>0.9970256922535218</v>
+        <v>0.9965998756721722</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>0.9972667478055439</v>
+        <v>0.9968535574211482</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>0.9974937497888993</v>
+        <v>0.9970934511873267</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0.9977071857735202</v>
+        <v>0.9973200177226195</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0.9979075382534917</v>
+        <v>0.997533712278597</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>0.9980952845797437</v>
+        <v>0.9977349845551045</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0.9982708968901219</v>
+        <v>0.9979242786471938</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0.9984348420366607</v>
+        <v>0.998102032990277</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0.9985875815098709</v>
+        <v>0.9982686803033946</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0.9987295713598361</v>
+        <v>0.9984246475304868</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>0.9988612621138868</v>
+        <v>0.9985703557795432</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>0.9989830986906054</v>
+        <v>0.9987062202594978</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>0.9990955203098822</v>
+        <v>0.9988326502147208</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>0.9991989603987188</v>
+        <v>0.998950048856948</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>0.9992938464924364</v>
+        <v>0.9990588132944723</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>0.9993806001309128</v>
+        <v>0.9991593344584011</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>0.999459636749425</v>
+        <v>0.9992519970257688</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>0.9995313655636237</v>
+        <v>0.9993371793392672</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>0.9995961894481105</v>
+        <v>0.9994152533233314</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.9996545048080181</v>
+        <v>0.9994865843962916</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>0.9997067014429183</v>
+        <v>0.9995515313782655</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0.9997531624022904</v>
+        <v>0.9996104463944265</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>0.9997942638316795</v>
+        <v>0.999663674773242</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>0.9998303748085502</v>
+        <v>0.9997115549392178</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>0.9998618571667003</v>
+        <v>0.9997544182996295</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>0.9998890653079342</v>
+        <v>0.9997925891246465</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>0.9999123459995088</v>
+        <v>0.9998263844201718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0.9999320381556523</v>
+        <v>0.9998561137926204</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>0.9999484726012235</v>
+        <v>0.9998820793047408</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>0.9999619718153435</v>
+        <v>0.9999045753214421</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>0.9999728496526086</v>
+        <v>0.9999238883444207</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>0.9999814110393456</v>
+        <v>0.9999402968341758</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>0.9999879516423513</v>
+        <v>0.999954071017757</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>0.9999927575076266</v>
+        <v>0.9999654726802927</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>0.999996104665808</v>
+        <v>0.9999747549379963</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>0.9999982586923665</v>
+        <v>0.9999821619899254</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>0.9999994741432026</v>
+        <v>0.9999879288452791</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>0.9999999931369629</v>
+        <v>0.9999922810224282</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1</v>
+        <v>0.9999954342150651</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1</v>
+        <v>0.9999975939190716</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1</v>
+        <v>0.9999989550063371</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1</v>
+        <v>0.9999997011859848</v>
       </c>
     </row>
     <row r="217" spans="1:1">
